--- a/任务及绩效评价/SE2019春-G11-项目介绍PPT任务以及绩效评价.xlsx
+++ b/任务及绩效评价/SE2019春-G11-项目介绍PPT任务以及绩效评价.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\软件工程\ZUCC-Lazy-Bone\评审PPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\软件工程\ZUCC-Lazy-Bone\任务及绩效评价\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -179,14 +179,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,7 +505,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -518,12 +518,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -558,8 +558,8 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7">
-        <v>1</v>
+      <c r="F3" s="8">
+        <v>0.76</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -590,10 +590,10 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="8"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -612,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -631,8 +631,8 @@
       <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="7">
-        <v>1</v>
+      <c r="F9" s="8">
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -649,7 +649,7 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>

--- a/任务及绩效评价/SE2019春-G11-项目介绍PPT任务以及绩效评价.xlsx
+++ b/任务及绩效评价/SE2019春-G11-项目介绍PPT任务以及绩效评价.xlsx
@@ -505,7 +505,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -559,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="8">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -612,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="5">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -632,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="8">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
